--- a/InputData/elec/SoTCCbIC/Share of Transmission Capital Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoTCCbIC/Share of Transmission Capital Costs by ISIC Code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffrey Rissman\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\elec\SoTCCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9299C5-F8A6-447D-8151-534D2CED3622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A45A609-26B9-4339-9D5E-4B611259B063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="0" windowWidth="24540" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="435" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="140">
   <si>
     <t>Capital Costs</t>
   </si>
@@ -57,9 +57,6 @@
     <t>D01T03: Agriculture, forestry and fishing</t>
   </si>
   <si>
-    <t>D05T06: Mining and extraction of energy producing products</t>
-  </si>
-  <si>
     <t>D07T08: Mining and quarrying of non-energy producing products</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>ISIC 01T03</t>
   </si>
   <si>
-    <t>ISIC 05T06</t>
-  </si>
-  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -451,6 +445,18 @@
   </si>
   <si>
     <t>SoTCCbIC Share of Transmission Capital Costs by ISIC Code</t>
+  </si>
+  <si>
+    <t>D06: Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>D05: Coal mining</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
   </si>
 </sst>
 </file>
@@ -827,6 +833,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -836,10 +846,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1136,15 +1142,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1154,17 +1160,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1180,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1194,10 +1200,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,295 +1211,303 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1524,30 +1538,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="A1" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -1555,7 +1569,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="47"/>
@@ -1565,7 +1579,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="36">
         <v>375000</v>
@@ -1575,20 +1589,20 @@
         <v>1.2997394453391755E-2</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f>'OECD Mapping'!A32</f>
+        <f>'OECD Mapping'!A33</f>
         <v>D68: Real estate activities</v>
       </c>
       <c r="E4" s="10" t="str">
-        <f>'OECD Mapping'!B32</f>
+        <f>'OECD Mapping'!B33</f>
         <v>ISIC 68</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="36">
         <v>363636.36363636365</v>
@@ -1598,20 +1612,20 @@
         <v>1.2603534015410187E-2</v>
       </c>
       <c r="D5" s="11" t="str">
-        <f>'OECD Mapping'!A32</f>
+        <f>'OECD Mapping'!A33</f>
         <v>D68: Real estate activities</v>
       </c>
       <c r="E5" s="11" t="str">
-        <f>'OECD Mapping'!B32</f>
+        <f>'OECD Mapping'!B33</f>
         <v>ISIC 68</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="36">
         <v>900000</v>
@@ -1621,20 +1635,20 @@
         <v>3.1193746688140213E-2</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>'OECD Mapping'!A33</f>
+        <f>'OECD Mapping'!A34</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E6" s="10" t="str">
-        <f>'OECD Mapping'!B33</f>
+        <f>'OECD Mapping'!B34</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="36">
         <v>675000</v>
@@ -1644,20 +1658,20 @@
         <v>2.3395310016105158E-2</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>'OECD Mapping'!A33</f>
+        <f>'OECD Mapping'!A34</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E7" s="10" t="str">
-        <f>'OECD Mapping'!B33</f>
+        <f>'OECD Mapping'!B34</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="36">
         <v>2313636.3636363638</v>
@@ -1666,36 +1680,36 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="47"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="47"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="38">
         <v>600000</v>
@@ -1705,20 +1719,20 @@
         <v>2.0795831125426809E-2</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>'OECD Mapping'!A14</f>
+        <f>'OECD Mapping'!A15</f>
         <v>D23: Other non-metallic mineral products</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f>'OECD Mapping'!B14</f>
+        <f>'OECD Mapping'!B15</f>
         <v>ISIC 23</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="38">
         <v>4950000</v>
@@ -1728,20 +1742,20 @@
         <v>0.17156560678477117</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>'OECD Mapping'!A16</f>
+        <f>'OECD Mapping'!A17</f>
         <v>D25: Fabricated metal products</v>
       </c>
       <c r="E12" s="10" t="str">
-        <f>'OECD Mapping'!B16</f>
+        <f>'OECD Mapping'!B17</f>
         <v>ISIC 25</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" s="38">
         <v>3300000</v>
@@ -1751,20 +1765,20 @@
         <v>0.11437707118984744</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f>'OECD Mapping'!A18</f>
+        <f>'OECD Mapping'!A19</f>
         <v>D27: Electrical equipment</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f>'OECD Mapping'!B18</f>
+        <f>'OECD Mapping'!B19</f>
         <v>ISIC 27</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="39">
         <v>8850000</v>
@@ -1773,24 +1787,24 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="47"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="38">
         <v>1765400.1798561153</v>
@@ -1800,20 +1814,20 @@
         <v>6.1188273348476478E-2</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f>'OECD Mapping'!A24</f>
+        <f>'OECD Mapping'!A25</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f>'OECD Mapping'!B24</f>
+        <f>'OECD Mapping'!B25</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="38">
         <v>3276000</v>
@@ -1823,20 +1837,20 @@
         <v>0.11354523794483037</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f>'OECD Mapping'!A24</f>
+        <f>'OECD Mapping'!A25</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f>'OECD Mapping'!B24</f>
+        <f>'OECD Mapping'!B25</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" s="39">
         <v>5041400.179856115</v>
@@ -1845,12 +1859,12 @@
       <c r="D18" s="4"/>
       <c r="E18" s="11"/>
       <c r="F18" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" s="41">
         <v>16205036.543492477</v>
@@ -1859,36 +1873,36 @@
       <c r="D19" s="4"/>
       <c r="E19" s="10"/>
       <c r="F19" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="47"/>
       <c r="D20" s="4"/>
       <c r="E20" s="10"/>
       <c r="F20" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="47"/>
       <c r="D21" s="4"/>
       <c r="E21" s="11"/>
       <c r="F21" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" s="39">
         <v>1800000</v>
@@ -1898,20 +1912,20 @@
         <v>6.2387493376280426E-2</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f>'OECD Mapping'!A23</f>
+        <f>'OECD Mapping'!A24</f>
         <v>D35T39: Electricity, gas, water supply, sewerage, waste and remediation services</v>
       </c>
       <c r="E22" s="10" t="str">
-        <f>'OECD Mapping'!B23</f>
+        <f>'OECD Mapping'!B24</f>
         <v>ISIC 35T39</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B23" s="43">
         <v>650000</v>
@@ -1921,20 +1935,20 @@
         <v>2.2528817052545707E-2</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f>'OECD Mapping'!A19</f>
+        <f>'OECD Mapping'!A20</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
       <c r="E23" s="10" t="str">
-        <f>'OECD Mapping'!B19</f>
+        <f>'OECD Mapping'!B20</f>
         <v>ISIC 28</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" s="43">
         <v>20000</v>
@@ -1944,20 +1958,20 @@
         <v>6.9319437084756029E-4</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f>'OECD Mapping'!A19</f>
+        <f>'OECD Mapping'!A20</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
       <c r="E24" s="11" t="str">
-        <f>'OECD Mapping'!B19</f>
+        <f>'OECD Mapping'!B20</f>
         <v>ISIC 28</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" s="39">
         <v>4800000</v>
@@ -1967,20 +1981,20 @@
         <v>0.16636664900341447</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f>'OECD Mapping'!A18</f>
+        <f>'OECD Mapping'!A19</f>
         <v>D27: Electrical equipment</v>
       </c>
       <c r="E25" s="10" t="str">
-        <f>'OECD Mapping'!B18</f>
+        <f>'OECD Mapping'!B19</f>
         <v>ISIC 27</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" s="43">
         <v>0</v>
@@ -1990,20 +2004,20 @@
         <v>0</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f>'OECD Mapping'!A18</f>
+        <f>'OECD Mapping'!A19</f>
         <v>D27: Electrical equipment</v>
       </c>
       <c r="E26" s="10" t="str">
-        <f>'OECD Mapping'!B18</f>
+        <f>'OECD Mapping'!B19</f>
         <v>ISIC 27</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" s="39">
         <v>7270000</v>
@@ -2012,12 +2026,12 @@
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
       <c r="F27" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="47">
@@ -2027,12 +2041,12 @@
       <c r="D28" s="4"/>
       <c r="E28" s="10"/>
       <c r="F28" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" s="39">
         <v>2092500</v>
@@ -2042,20 +2056,20 @@
         <v>7.2525461049925993E-2</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f>'OECD Mapping'!$A$24</f>
+        <f>'OECD Mapping'!$A$25</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E29" s="10" t="str">
-        <f>'OECD Mapping'!$B$24</f>
+        <f>'OECD Mapping'!$B$25</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" s="43">
         <v>744000</v>
@@ -2065,20 +2079,20 @@
         <v>2.5786830595529241E-2</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f>'OECD Mapping'!$A$24</f>
+        <f>'OECD Mapping'!$A$25</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E30" s="11" t="str">
-        <f>'OECD Mapping'!$B$24</f>
+        <f>'OECD Mapping'!$B$25</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" s="43">
         <v>27900</v>
@@ -2088,20 +2102,20 @@
         <v>9.6700614733234659E-4</v>
       </c>
       <c r="D31" s="10" t="str">
-        <f>'OECD Mapping'!$A$24</f>
+        <f>'OECD Mapping'!$A$25</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E31" s="10" t="str">
-        <f>'OECD Mapping'!$B$24</f>
+        <f>'OECD Mapping'!$B$25</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" s="38">
         <v>0</v>
@@ -2111,20 +2125,20 @@
         <v>0</v>
       </c>
       <c r="D32" s="10" t="str">
-        <f>'OECD Mapping'!$A$24</f>
+        <f>'OECD Mapping'!$A$25</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E32" s="10" t="str">
-        <f>'OECD Mapping'!$B$24</f>
+        <f>'OECD Mapping'!$B$25</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" s="38">
         <v>0</v>
@@ -2134,20 +2148,20 @@
         <v>0</v>
       </c>
       <c r="D33" s="10" t="str">
-        <f>'OECD Mapping'!$A$24</f>
+        <f>'OECD Mapping'!$A$25</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E33" s="11" t="str">
-        <f>'OECD Mapping'!$B$24</f>
+        <f>'OECD Mapping'!$B$25</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" s="39">
         <v>2864400</v>
@@ -2156,12 +2170,12 @@
       <c r="D34" s="4"/>
       <c r="E34" s="10"/>
       <c r="F34" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B35" s="42">
         <v>10134400</v>
@@ -2170,38 +2184,38 @@
       <c r="D35" s="4"/>
       <c r="E35" s="10"/>
       <c r="F35" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" s="47"/>
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
       <c r="F36" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="47"/>
       <c r="D37" s="4"/>
       <c r="E37" s="10"/>
       <c r="F37" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" s="39">
         <v>375000</v>
@@ -2211,20 +2225,20 @@
         <v>1.2997394453391755E-2</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f>'OECD Mapping'!A33</f>
+        <f>'OECD Mapping'!A34</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E38" s="10" t="str">
-        <f>'OECD Mapping'!B33</f>
+        <f>'OECD Mapping'!B34</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B39" s="39">
         <v>750000</v>
@@ -2234,15 +2248,15 @@
         <v>2.5994788906783511E-2</v>
       </c>
       <c r="D39" s="50" t="str">
-        <f>'OECD Mapping'!A33</f>
+        <f>'OECD Mapping'!A34</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E39" s="11" t="str">
-        <f>'OECD Mapping'!B33</f>
+        <f>'OECD Mapping'!B34</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2256,24 +2270,24 @@
       <c r="D40" s="4"/>
       <c r="E40" s="10"/>
       <c r="F40" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B41" s="42"/>
       <c r="C41" s="47"/>
       <c r="D41" s="4"/>
       <c r="E41" s="10"/>
       <c r="F41" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B42" s="39">
         <v>222000</v>
@@ -2283,20 +2297,20 @@
         <v>7.6944575164079191E-3</v>
       </c>
       <c r="D42" s="50" t="str">
-        <f>'OECD Mapping'!A33</f>
+        <f>'OECD Mapping'!A34</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E42" s="11" t="str">
-        <f>'OECD Mapping'!B33</f>
+        <f>'OECD Mapping'!B34</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" s="39">
         <v>1110000</v>
@@ -2306,15 +2320,15 @@
         <v>3.8472287582039591E-2</v>
       </c>
       <c r="D43" s="50" t="str">
-        <f>'OECD Mapping'!A33</f>
+        <f>'OECD Mapping'!A34</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E43" s="10" t="str">
-        <f>'OECD Mapping'!B33</f>
+        <f>'OECD Mapping'!B34</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2328,24 +2342,24 @@
       <c r="D44" s="4"/>
       <c r="E44" s="10"/>
       <c r="F44" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B45" s="42"/>
       <c r="C45" s="47"/>
       <c r="D45" s="4"/>
       <c r="E45" s="11"/>
       <c r="F45" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B46" s="38">
         <v>0</v>
@@ -2355,20 +2369,20 @@
         <v>0</v>
       </c>
       <c r="D46" s="50" t="str">
-        <f>'OECD Mapping'!$A$33</f>
+        <f>'OECD Mapping'!$A$34</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E46" s="10" t="str">
-        <f>'OECD Mapping'!$B$33</f>
+        <f>'OECD Mapping'!$B$34</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B47" s="38">
         <v>0</v>
@@ -2378,20 +2392,20 @@
         <v>0</v>
       </c>
       <c r="D47" s="50" t="str">
-        <f>'OECD Mapping'!$A$33</f>
+        <f>'OECD Mapping'!$A$34</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E47" s="10" t="str">
-        <f>'OECD Mapping'!$B$33</f>
+        <f>'OECD Mapping'!$B$34</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B48" s="38">
         <v>0</v>
@@ -2401,20 +2415,20 @@
         <v>0</v>
       </c>
       <c r="D48" s="50" t="str">
-        <f>'OECD Mapping'!$A$33</f>
+        <f>'OECD Mapping'!$A$34</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E48" s="11" t="str">
-        <f>'OECD Mapping'!$B$33</f>
+        <f>'OECD Mapping'!$B$34</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B49" s="38">
         <v>55500</v>
@@ -2424,20 +2438,20 @@
         <v>1.9236143791019798E-3</v>
       </c>
       <c r="D49" s="50" t="str">
-        <f>'OECD Mapping'!A31</f>
+        <f>'OECD Mapping'!A32</f>
         <v>D64T66: Financial and insurance activities</v>
       </c>
       <c r="E49" s="10" t="str">
-        <f>'OECD Mapping'!B31</f>
+        <f>'OECD Mapping'!B32</f>
         <v>ISIC 64T66</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B50" s="38">
         <v>55500</v>
@@ -2446,12 +2460,12 @@
       <c r="D50" s="4"/>
       <c r="E50" s="10"/>
       <c r="F50" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B51" s="44">
         <v>2512500</v>
@@ -2460,7 +2474,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="11"/>
       <c r="F51" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2474,7 +2488,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="10"/>
       <c r="F52" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2488,12 +2502,12 @@
       <c r="D53" s="4"/>
       <c r="E53" s="10"/>
       <c r="F53" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B54" s="33">
         <v>29859436.543492477</v>
@@ -2516,135 +2530,138 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="38" width="10.42578125" customWidth="1"/>
+    <col min="2" max="39" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="54" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="F1" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="G1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="H1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="I1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="J1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="K1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="L1" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="O1" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="54" t="s">
+      <c r="P1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="Q1" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="R1" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="S1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="T1" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="U1" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="V1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="W1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="X1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="Y1" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="54" t="s">
+      <c r="Z1" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="AA1" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="54" t="s">
+      <c r="AB1" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="54" t="s">
+      <c r="AC1" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="54" t="s">
+      <c r="AD1" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="AB1" s="54" t="s">
+      <c r="AE1" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="AC1" s="54" t="s">
+      <c r="AF1" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" s="54" t="s">
+      <c r="AG1" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="54" t="s">
+      <c r="AH1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="54" t="s">
+      <c r="AI1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" s="54" t="s">
+      <c r="AJ1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" s="54" t="s">
+      <c r="AK1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="54" t="s">
+      <c r="AL1" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="AJ1" s="54" t="s">
+      <c r="AM1" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="AK1" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL1" s="54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!B$1,'Cost Breakdowns'!$C$3:$C$49)</f>
@@ -2696,31 +2713,31 @@
       </c>
       <c r="N2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!N$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>2.0795831125426809E-2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!O$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>2.0795831125426809E-2</v>
       </c>
       <c r="P2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!P$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0.17156560678477117</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!Q$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>0.17156560678477117</v>
       </c>
       <c r="R2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!R$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0.28074372019326188</v>
+        <v>0</v>
       </c>
       <c r="S2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!S$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>2.3222011423393266E-2</v>
+        <v>0.28074372019326188</v>
       </c>
       <c r="T2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!T$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>2.3222011423393266E-2</v>
       </c>
       <c r="U2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!U$1,'Cost Breakdowns'!$C$3:$C$49)</f>
@@ -2732,15 +2749,15 @@
       </c>
       <c r="W2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!W$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>6.2387493376280426E-2</v>
+        <v>0</v>
       </c>
       <c r="X2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!X$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0.27401280908609443</v>
+        <v>6.2387493376280426E-2</v>
       </c>
       <c r="Y2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!Y$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>0.27401280908609443</v>
       </c>
       <c r="Z2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!Z$1,'Cost Breakdowns'!$C$3:$C$49)</f>
@@ -2764,19 +2781,19 @@
       </c>
       <c r="AE2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AE$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>1.9236143791019798E-3</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AF$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>2.5600928468801944E-2</v>
+        <v>1.9236143791019798E-3</v>
       </c>
       <c r="AG2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AG$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0.13974798516286813</v>
+        <v>2.5600928468801944E-2</v>
       </c>
       <c r="AH2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AH$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>0.13974798516286813</v>
       </c>
       <c r="AI2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AI$1,'Cost Breakdowns'!$C$3:$C$49)</f>
@@ -2794,9 +2811,13 @@
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AL$1,'Cost Breakdowns'!$C$3:$C$49)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E10" s="13"/>
+      <c r="AM2" s="13">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AM$1,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
